--- a/ALS_data/Log 2016-03-30T02-31-52.426/plots/threadLogger.xlsx
+++ b/ALS_data/Log 2016-03-30T02-31-52.426/plots/threadLogger.xlsx
@@ -22,22 +22,22 @@
     <t>thread name</t>
   </si>
   <si>
-    <t xml:space="preserve"> total move</t>
+    <t>total move</t>
   </si>
   <si>
     <t>alive_time</t>
   </si>
   <si>
-    <t xml:space="preserve">total food count </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> total poison count </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> total children count</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> dna</t>
+    <t>total food count</t>
+  </si>
+  <si>
+    <t>total poison count</t>
+  </si>
+  <si>
+    <t>total children count</t>
+  </si>
+  <si>
+    <t>dna</t>
   </si>
   <si>
     <t>gendar</t>
@@ -52,7 +52,7 @@
     <t>end_time</t>
   </si>
   <si>
-    <t>Thread-88</t>
+    <t>88</t>
   </si>
   <si>
     <t xml:space="preserve"> GCGTGGTCGC</t>
@@ -61,7 +61,7 @@
     <t>male</t>
   </si>
   <si>
-    <t>Thread-60</t>
+    <t>60</t>
   </si>
   <si>
     <t xml:space="preserve"> CCTAGTAATG</t>
@@ -70,1084 +70,1084 @@
     <t>female</t>
   </si>
   <si>
-    <t>Thread-24</t>
+    <t>24</t>
   </si>
   <si>
     <t xml:space="preserve"> TTAGAATTAT</t>
   </si>
   <si>
-    <t>Thread-38</t>
+    <t>38</t>
   </si>
   <si>
     <t xml:space="preserve"> TGTTTTCGAC</t>
   </si>
   <si>
-    <t>Thread-43</t>
+    <t>43</t>
   </si>
   <si>
     <t xml:space="preserve"> CGGGCGATCT</t>
   </si>
   <si>
-    <t>Thread-30</t>
+    <t>30</t>
   </si>
   <si>
     <t xml:space="preserve"> CTCCGATAAC</t>
   </si>
   <si>
-    <t>Thread-42</t>
+    <t>42</t>
   </si>
   <si>
     <t xml:space="preserve"> TGTGCAACAT</t>
   </si>
   <si>
-    <t>Thread-25</t>
+    <t>25</t>
   </si>
   <si>
     <t xml:space="preserve"> ATATAGCTGC</t>
   </si>
   <si>
-    <t>Thread-34</t>
+    <t>34</t>
   </si>
   <si>
     <t xml:space="preserve"> CAAGTGTGTA</t>
   </si>
   <si>
-    <t>Thread-15</t>
+    <t>15</t>
   </si>
   <si>
     <t xml:space="preserve"> GAGGGATCCC</t>
   </si>
   <si>
-    <t>Thread-36</t>
+    <t>36</t>
   </si>
   <si>
     <t xml:space="preserve"> AGCAGTAGGA</t>
   </si>
   <si>
-    <t>Thread-78</t>
+    <t>78</t>
   </si>
   <si>
     <t xml:space="preserve"> TCCGGGTTCG</t>
   </si>
   <si>
-    <t>Thread-70</t>
+    <t>70</t>
   </si>
   <si>
     <t xml:space="preserve"> CCAGCCTCCT</t>
   </si>
   <si>
-    <t>Thread-77</t>
+    <t>77</t>
   </si>
   <si>
     <t xml:space="preserve"> GGCTAGCCGT</t>
   </si>
   <si>
-    <t>Thread-80</t>
+    <t>80</t>
   </si>
   <si>
     <t xml:space="preserve"> CAGCGTTCGA</t>
   </si>
   <si>
-    <t>Thread-27</t>
+    <t>27</t>
   </si>
   <si>
     <t xml:space="preserve"> TAAGCGCGGC</t>
   </si>
   <si>
-    <t>Thread-67</t>
+    <t>67</t>
   </si>
   <si>
     <t xml:space="preserve"> CACGGTGGTT</t>
   </si>
   <si>
-    <t>Thread-40</t>
+    <t>40</t>
   </si>
   <si>
     <t xml:space="preserve"> GAATGCCTCT</t>
   </si>
   <si>
-    <t>Thread-10</t>
+    <t>10</t>
   </si>
   <si>
     <t xml:space="preserve"> TCCACGTTGG</t>
   </si>
   <si>
-    <t>Thread-61</t>
+    <t>61</t>
   </si>
   <si>
     <t xml:space="preserve"> ACGGGCCATG</t>
   </si>
   <si>
-    <t>Thread-23</t>
+    <t>23</t>
   </si>
   <si>
     <t xml:space="preserve"> TTATGCTACC</t>
   </si>
   <si>
-    <t>Thread-7</t>
+    <t>7</t>
   </si>
   <si>
     <t xml:space="preserve"> AAGTGAATGT</t>
   </si>
   <si>
-    <t>Thread-6</t>
+    <t>6</t>
   </si>
   <si>
     <t xml:space="preserve"> TAGGAGCTAA</t>
   </si>
   <si>
-    <t>Thread-39</t>
+    <t>39</t>
   </si>
   <si>
     <t xml:space="preserve"> AAGGTGGAGG</t>
   </si>
   <si>
-    <t>Thread-13</t>
+    <t>13</t>
   </si>
   <si>
     <t xml:space="preserve"> CCTTTGTTGT</t>
   </si>
   <si>
-    <t>Thread-47</t>
+    <t>47</t>
   </si>
   <si>
     <t xml:space="preserve"> GTTTTTCCTC</t>
   </si>
   <si>
-    <t>Thread-51</t>
+    <t>51</t>
   </si>
   <si>
     <t xml:space="preserve"> GTAACCGTGC</t>
   </si>
   <si>
-    <t>Thread-52</t>
+    <t>52</t>
   </si>
   <si>
     <t xml:space="preserve"> CTCATGTTAC</t>
   </si>
   <si>
-    <t>Thread-65</t>
+    <t>65</t>
   </si>
   <si>
     <t xml:space="preserve"> TCTCTTAGCC</t>
   </si>
   <si>
-    <t>Thread-49</t>
+    <t>49</t>
   </si>
   <si>
     <t xml:space="preserve"> CGTTATTGTC</t>
   </si>
   <si>
-    <t>Thread-16</t>
+    <t>16</t>
   </si>
   <si>
     <t xml:space="preserve"> TGCTCAAAAC</t>
   </si>
   <si>
-    <t>Thread-89</t>
+    <t>89</t>
   </si>
   <si>
     <t xml:space="preserve"> CCAGCCTCGT</t>
   </si>
   <si>
-    <t>Thread-90</t>
+    <t>90</t>
   </si>
   <si>
     <t xml:space="preserve"> GGGGAGTCTG</t>
   </si>
   <si>
-    <t>Thread-86</t>
+    <t>86</t>
   </si>
   <si>
     <t xml:space="preserve"> GTACGCTGCG</t>
   </si>
   <si>
-    <t>Thread-94</t>
+    <t>94</t>
   </si>
   <si>
     <t xml:space="preserve"> ACTATTTTAC</t>
   </si>
   <si>
-    <t>Thread-35</t>
+    <t>35</t>
   </si>
   <si>
     <t xml:space="preserve"> GCTTTTGAAT</t>
   </si>
   <si>
-    <t>Thread-46</t>
+    <t>46</t>
   </si>
   <si>
     <t xml:space="preserve"> GACTGACTTA</t>
   </si>
   <si>
-    <t>Thread-63</t>
+    <t>63</t>
   </si>
   <si>
     <t xml:space="preserve"> GTTAATCACA</t>
   </si>
   <si>
-    <t>Thread-11</t>
+    <t>11</t>
   </si>
   <si>
     <t xml:space="preserve"> AAGCCCTTTG</t>
   </si>
   <si>
-    <t>Thread-22</t>
+    <t>22</t>
   </si>
   <si>
     <t xml:space="preserve"> AGTCATCTAA</t>
   </si>
   <si>
-    <t>Thread-82</t>
+    <t>82</t>
   </si>
   <si>
     <t xml:space="preserve"> AAGGGAGCAC</t>
   </si>
   <si>
-    <t>Thread-9</t>
+    <t>9</t>
   </si>
   <si>
     <t xml:space="preserve"> TATCGAATCA</t>
   </si>
   <si>
-    <t>Thread-71</t>
+    <t>71</t>
   </si>
   <si>
     <t xml:space="preserve"> AAGGCTTCCT</t>
   </si>
   <si>
-    <t>Thread-5</t>
+    <t>5</t>
   </si>
   <si>
     <t xml:space="preserve"> GAAGCCACCT</t>
   </si>
   <si>
-    <t>Thread-75</t>
+    <t>75</t>
   </si>
   <si>
     <t xml:space="preserve"> TAAGGGCTCC</t>
   </si>
   <si>
-    <t>Thread-69</t>
+    <t>69</t>
   </si>
   <si>
     <t xml:space="preserve"> CTCAGTAGAG</t>
   </si>
   <si>
-    <t>Thread-76</t>
+    <t>76</t>
   </si>
   <si>
     <t xml:space="preserve"> GAAGATCTAC</t>
   </si>
   <si>
-    <t>Thread-19</t>
+    <t>19</t>
   </si>
   <si>
     <t xml:space="preserve"> TAGCTGATAC</t>
   </si>
   <si>
-    <t>Thread-95</t>
+    <t>95</t>
   </si>
   <si>
     <t xml:space="preserve"> CGCCTCCTAC</t>
   </si>
   <si>
-    <t>Thread-18</t>
+    <t>18</t>
   </si>
   <si>
     <t xml:space="preserve"> GTATTGGGGA</t>
   </si>
   <si>
-    <t>Thread-83</t>
+    <t>83</t>
   </si>
   <si>
     <t xml:space="preserve"> AAGGGTTGGT</t>
   </si>
   <si>
-    <t>Thread-57</t>
+    <t>57</t>
   </si>
   <si>
     <t xml:space="preserve"> ATCTGGTTAC</t>
   </si>
   <si>
-    <t>Thread-32</t>
+    <t>32</t>
   </si>
   <si>
     <t xml:space="preserve"> CCAGCTAGGT</t>
   </si>
   <si>
-    <t>Thread-31</t>
+    <t>31</t>
   </si>
   <si>
     <t xml:space="preserve"> CCGCTTTTTG</t>
   </si>
   <si>
-    <t>Thread-97</t>
+    <t>97</t>
   </si>
   <si>
     <t xml:space="preserve"> TCTGTTTTTA</t>
   </si>
   <si>
-    <t>Thread-14</t>
+    <t>14</t>
   </si>
   <si>
     <t xml:space="preserve"> AATGACGTGA</t>
   </si>
   <si>
-    <t>Thread-81</t>
+    <t>81</t>
   </si>
   <si>
     <t xml:space="preserve"> CCAATTGACT</t>
   </si>
   <si>
-    <t>Thread-98</t>
+    <t>98</t>
   </si>
   <si>
     <t xml:space="preserve"> CCGGGCCATG</t>
   </si>
   <si>
-    <t>Thread-87</t>
+    <t>87</t>
   </si>
   <si>
     <t xml:space="preserve"> GGGGAGTGAG</t>
   </si>
   <si>
-    <t>Thread-41</t>
+    <t>41</t>
   </si>
   <si>
     <t xml:space="preserve"> CACAAAACTC</t>
   </si>
   <si>
-    <t>Thread-55</t>
+    <t>55</t>
   </si>
   <si>
     <t xml:space="preserve"> AGAACTATGG</t>
   </si>
   <si>
-    <t>Thread-45</t>
+    <t>45</t>
   </si>
   <si>
     <t xml:space="preserve"> CCGCAGGGGC</t>
   </si>
   <si>
-    <t>Thread-74</t>
+    <t>74</t>
   </si>
   <si>
     <t xml:space="preserve"> GCTATTCTCT</t>
   </si>
   <si>
-    <t>Thread-59</t>
+    <t>59</t>
   </si>
   <si>
     <t xml:space="preserve"> TAGTATTCAG</t>
   </si>
   <si>
-    <t>Thread-8</t>
+    <t>8</t>
   </si>
   <si>
     <t xml:space="preserve"> CACTATGATG</t>
   </si>
   <si>
-    <t>Thread-100</t>
+    <t>100</t>
   </si>
   <si>
     <t xml:space="preserve"> AATGATCCGC</t>
   </si>
   <si>
-    <t>Thread-103</t>
+    <t>103</t>
   </si>
   <si>
     <t xml:space="preserve"> CTTGGTGACT</t>
   </si>
   <si>
-    <t>Thread-33</t>
+    <t>33</t>
   </si>
   <si>
     <t xml:space="preserve"> TGGTTTCCCC</t>
   </si>
   <si>
-    <t>Thread-26</t>
+    <t>26</t>
   </si>
   <si>
     <t xml:space="preserve"> GCAGATCTCG</t>
   </si>
   <si>
-    <t>Thread-105</t>
+    <t>105</t>
   </si>
   <si>
     <t xml:space="preserve"> GGGTTTCCCC</t>
   </si>
   <si>
-    <t>Thread-108</t>
+    <t>108</t>
   </si>
   <si>
     <t xml:space="preserve"> GGGGAGTGTC</t>
   </si>
   <si>
-    <t>Thread-112</t>
+    <t>112</t>
   </si>
   <si>
     <t xml:space="preserve"> AAGGGTTGAA</t>
   </si>
   <si>
-    <t>Thread-96</t>
+    <t>96</t>
   </si>
   <si>
     <t xml:space="preserve"> GACGGTCTCG</t>
   </si>
   <si>
-    <t>Thread-91</t>
+    <t>91</t>
   </si>
   <si>
     <t xml:space="preserve"> GTAAAGTGAG</t>
   </si>
   <si>
-    <t>Thread-66</t>
+    <t>66</t>
   </si>
   <si>
     <t xml:space="preserve"> GCTTTGTCGC</t>
   </si>
   <si>
-    <t>Thread-21</t>
+    <t>21</t>
   </si>
   <si>
     <t xml:space="preserve"> GGATGTTTAC</t>
   </si>
   <si>
-    <t>Thread-72</t>
+    <t>72</t>
   </si>
   <si>
     <t xml:space="preserve"> GTTCGCTGCG</t>
   </si>
   <si>
-    <t>Thread-114</t>
+    <t>114</t>
   </si>
   <si>
     <t xml:space="preserve"> CTCTAGAGGT</t>
   </si>
   <si>
-    <t>Thread-85</t>
-  </si>
-  <si>
-    <t>Thread-115</t>
+    <t>85</t>
+  </si>
+  <si>
+    <t>115</t>
   </si>
   <si>
     <t xml:space="preserve"> TTTCAGTGAG</t>
   </si>
   <si>
-    <t>Thread-92</t>
+    <t>92</t>
   </si>
   <si>
     <t xml:space="preserve"> CCAGGTGACT</t>
   </si>
   <si>
-    <t>Thread-116</t>
+    <t>116</t>
   </si>
   <si>
     <t xml:space="preserve"> GTTTTTGAAT</t>
   </si>
   <si>
-    <t>Thread-118</t>
+    <t>118</t>
   </si>
   <si>
     <t xml:space="preserve"> GAGTGTTTAC</t>
   </si>
   <si>
-    <t>Thread-99</t>
+    <t>99</t>
   </si>
   <si>
     <t xml:space="preserve"> GTACTCTGCG</t>
   </si>
   <si>
-    <t>Thread-121</t>
+    <t>121</t>
   </si>
   <si>
     <t xml:space="preserve"> CCAGGTGAAT</t>
   </si>
   <si>
-    <t>Thread-50</t>
+    <t>50</t>
   </si>
   <si>
     <t xml:space="preserve"> TTTCAGGGTC</t>
   </si>
   <si>
-    <t>Thread-17</t>
+    <t>17</t>
   </si>
   <si>
     <t xml:space="preserve"> CATGCGGGCC</t>
   </si>
   <si>
-    <t>Thread-20</t>
+    <t>20</t>
   </si>
   <si>
     <t xml:space="preserve"> GACCGCGTGC</t>
   </si>
   <si>
-    <t>Thread-48</t>
+    <t>48</t>
   </si>
   <si>
     <t xml:space="preserve"> TGTTCTCTAA</t>
   </si>
   <si>
-    <t>Thread-62</t>
+    <t>62</t>
   </si>
   <si>
     <t xml:space="preserve"> TCATCGTGTC</t>
   </si>
   <si>
-    <t>Thread-64</t>
+    <t>64</t>
   </si>
   <si>
     <t xml:space="preserve"> ACTTCTATAT</t>
   </si>
   <si>
-    <t>Thread-4</t>
+    <t>4</t>
   </si>
   <si>
     <t xml:space="preserve"> AGCAGTGTGG</t>
   </si>
   <si>
-    <t>Thread-68</t>
-  </si>
-  <si>
-    <t>Thread-37</t>
+    <t>68</t>
+  </si>
+  <si>
+    <t>37</t>
   </si>
   <si>
     <t xml:space="preserve"> GATGCAGGAG</t>
   </si>
   <si>
-    <t>Thread-122</t>
+    <t>122</t>
   </si>
   <si>
     <t xml:space="preserve"> GAGTTGGGGA</t>
   </si>
   <si>
-    <t>Thread-12</t>
+    <t>12</t>
   </si>
   <si>
     <t xml:space="preserve"> TGTAACGTTG</t>
   </si>
   <si>
-    <t>Thread-53</t>
+    <t>53</t>
   </si>
   <si>
     <t xml:space="preserve"> AATAGTTACT</t>
   </si>
   <si>
-    <t>Thread-56</t>
+    <t>56</t>
   </si>
   <si>
     <t xml:space="preserve"> CGAGCAACAG</t>
   </si>
   <si>
-    <t>Thread-102</t>
+    <t>102</t>
   </si>
   <si>
     <t xml:space="preserve"> GCTGATCCGC</t>
   </si>
   <si>
-    <t>Thread-73</t>
+    <t>73</t>
   </si>
   <si>
     <t xml:space="preserve"> TGTAGGATAG</t>
   </si>
   <si>
-    <t>Thread-104</t>
+    <t>104</t>
   </si>
   <si>
     <t xml:space="preserve"> GAGCTGATAC</t>
   </si>
   <si>
-    <t>Thread-44</t>
+    <t>44</t>
   </si>
   <si>
     <t xml:space="preserve"> TGCTTCGGCG</t>
   </si>
   <si>
-    <t>Thread-29</t>
+    <t>29</t>
   </si>
   <si>
     <t xml:space="preserve"> CTCTAGACGG</t>
   </si>
   <si>
-    <t>Thread-54</t>
+    <t>54</t>
   </si>
   <si>
     <t xml:space="preserve"> CCCCCAGCAA</t>
   </si>
   <si>
-    <t>Thread-106</t>
+    <t>106</t>
   </si>
   <si>
     <t xml:space="preserve"> GTAATTGACT</t>
   </si>
   <si>
-    <t>Thread-110</t>
+    <t>110</t>
   </si>
   <si>
     <t xml:space="preserve"> GGGGTGTCGG</t>
   </si>
   <si>
-    <t>Thread-126</t>
+    <t>126</t>
   </si>
   <si>
     <t xml:space="preserve"> GAAGATACAC</t>
   </si>
   <si>
-    <t>Thread-93</t>
+    <t>93</t>
   </si>
   <si>
     <t xml:space="preserve"> GCTTTTCCGC</t>
   </si>
   <si>
-    <t>Thread-128</t>
+    <t>128</t>
   </si>
   <si>
     <t xml:space="preserve"> TGGTCACCGC</t>
   </si>
   <si>
-    <t>Thread-127</t>
+    <t>127</t>
   </si>
   <si>
     <t xml:space="preserve"> CCACCAGCAA</t>
   </si>
   <si>
-    <t>Thread-58</t>
+    <t>58</t>
   </si>
   <si>
     <t xml:space="preserve"> TCTGTTAACA</t>
   </si>
   <si>
-    <t>Thread-109</t>
+    <t>109</t>
   </si>
   <si>
     <t xml:space="preserve"> GAAGCCACAC</t>
   </si>
   <si>
-    <t>Thread-111</t>
+    <t>111</t>
   </si>
   <si>
     <t xml:space="preserve"> AATTTGTTGA</t>
   </si>
   <si>
-    <t>Thread-113</t>
+    <t>113</t>
   </si>
   <si>
     <t xml:space="preserve"> GATGCTCCCC</t>
   </si>
   <si>
-    <t>Thread-123</t>
+    <t>123</t>
   </si>
   <si>
     <t xml:space="preserve"> GGGGACGTTG</t>
   </si>
   <si>
-    <t>Thread-133</t>
+    <t>133</t>
   </si>
   <si>
     <t xml:space="preserve"> GGGTTTCCGC</t>
   </si>
   <si>
-    <t>Thread-119</t>
+    <t>119</t>
   </si>
   <si>
     <t xml:space="preserve"> AAGCCCAACA</t>
   </si>
   <si>
-    <t>Thread-28</t>
+    <t>28</t>
   </si>
   <si>
     <t xml:space="preserve"> CGCCTCCCAC</t>
   </si>
   <si>
-    <t>Thread-79</t>
+    <t>79</t>
   </si>
   <si>
     <t xml:space="preserve"> GATGCACCGC</t>
   </si>
   <si>
-    <t>Thread-136</t>
+    <t>136</t>
   </si>
   <si>
     <t xml:space="preserve"> TGCCTCGGCG</t>
   </si>
   <si>
-    <t>Thread-117</t>
-  </si>
-  <si>
-    <t>Thread-137</t>
+    <t>117</t>
+  </si>
+  <si>
+    <t>137</t>
   </si>
   <si>
     <t xml:space="preserve"> GATTTACCGC</t>
   </si>
   <si>
-    <t>Thread-101</t>
-  </si>
-  <si>
-    <t>Thread-107</t>
+    <t>101</t>
+  </si>
+  <si>
+    <t>107</t>
   </si>
   <si>
     <t xml:space="preserve"> GAAGATCTCG</t>
   </si>
   <si>
-    <t>Thread-132</t>
+    <t>132</t>
   </si>
   <si>
     <t xml:space="preserve"> GCTTTGTCTG</t>
   </si>
   <si>
-    <t>Thread-141</t>
+    <t>141</t>
   </si>
   <si>
     <t xml:space="preserve"> GCAGCTCCCC</t>
   </si>
   <si>
-    <t>Thread-142</t>
+    <t>142</t>
   </si>
   <si>
     <t xml:space="preserve"> GTTCGTGACT</t>
   </si>
   <si>
-    <t>Thread-130</t>
+    <t>130</t>
   </si>
   <si>
     <t xml:space="preserve"> CGACTCCCAC</t>
   </si>
   <si>
-    <t>Thread-143</t>
+    <t>143</t>
   </si>
   <si>
     <t xml:space="preserve"> TGGCTTCCCC</t>
   </si>
   <si>
-    <t>Thread-145</t>
+    <t>145</t>
   </si>
   <si>
     <t xml:space="preserve"> TGAGATCCAC</t>
   </si>
   <si>
-    <t>Thread-147</t>
+    <t>147</t>
   </si>
   <si>
     <t xml:space="preserve"> CATAGTTACT</t>
   </si>
   <si>
-    <t>Thread-120</t>
+    <t>120</t>
   </si>
   <si>
     <t xml:space="preserve"> CGAGATCCAC</t>
   </si>
   <si>
-    <t>Thread-138</t>
+    <t>138</t>
   </si>
   <si>
     <t xml:space="preserve"> GAATGTTTCG</t>
   </si>
   <si>
-    <t>Thread-148</t>
+    <t>148</t>
   </si>
   <si>
     <t xml:space="preserve"> AATTTGTCGA</t>
   </si>
   <si>
-    <t>Thread-149</t>
+    <t>149</t>
   </si>
   <si>
     <t xml:space="preserve"> GGTTTTCCGC</t>
   </si>
   <si>
-    <t>Thread-135</t>
+    <t>135</t>
   </si>
   <si>
     <t xml:space="preserve"> TGTTCTCCAC</t>
   </si>
   <si>
-    <t>Thread-139</t>
+    <t>139</t>
   </si>
   <si>
     <t xml:space="preserve"> CGCCATCCAC</t>
   </si>
   <si>
-    <t>Thread-152</t>
+    <t>152</t>
   </si>
   <si>
     <t xml:space="preserve"> AAGCCCCCCA</t>
   </si>
   <si>
-    <t>Thread-140</t>
-  </si>
-  <si>
-    <t>Thread-125</t>
-  </si>
-  <si>
-    <t>Thread-153</t>
+    <t>140</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>153</t>
   </si>
   <si>
     <t xml:space="preserve"> TAGCCCAACC</t>
   </si>
   <si>
-    <t>Thread-144</t>
+    <t>144</t>
   </si>
   <si>
     <t xml:space="preserve"> GCAGGTGCCC</t>
   </si>
   <si>
-    <t>Thread-129</t>
+    <t>129</t>
   </si>
   <si>
     <t xml:space="preserve"> CCAGGTGCCC</t>
   </si>
   <si>
-    <t>Thread-131</t>
-  </si>
-  <si>
-    <t>Thread-154</t>
+    <t>131</t>
+  </si>
+  <si>
+    <t>154</t>
   </si>
   <si>
     <t xml:space="preserve"> CCAGGTCCGC</t>
   </si>
   <si>
-    <t>Thread-155</t>
-  </si>
-  <si>
-    <t>Thread-150</t>
+    <t>155</t>
+  </si>
+  <si>
+    <t>150</t>
   </si>
   <si>
     <t xml:space="preserve"> CGAGCCACAC</t>
   </si>
   <si>
-    <t>Thread-157</t>
+    <t>157</t>
   </si>
   <si>
     <t xml:space="preserve"> TAATGTTTCG</t>
   </si>
   <si>
-    <t>Thread-159</t>
+    <t>159</t>
   </si>
   <si>
     <t xml:space="preserve"> GGGGGTGCCC</t>
   </si>
   <si>
-    <t>Thread-151</t>
+    <t>151</t>
   </si>
   <si>
     <t xml:space="preserve"> AAGCCCCCAC</t>
   </si>
   <si>
-    <t>Thread-161</t>
+    <t>161</t>
   </si>
   <si>
     <t xml:space="preserve"> GAGCCCCCCA</t>
   </si>
   <si>
-    <t>Thread-162</t>
-  </si>
-  <si>
-    <t>Thread-163</t>
+    <t>162</t>
+  </si>
+  <si>
+    <t>163</t>
   </si>
   <si>
     <t xml:space="preserve"> CGAGCCACCA</t>
   </si>
   <si>
-    <t>Thread-124</t>
+    <t>124</t>
   </si>
   <si>
     <t xml:space="preserve"> GATTTTCCGC</t>
   </si>
   <si>
-    <t>Thread-165</t>
+    <t>165</t>
   </si>
   <si>
     <t xml:space="preserve"> TATGCCACAC</t>
   </si>
   <si>
-    <t>Thread-156</t>
+    <t>156</t>
   </si>
   <si>
     <t xml:space="preserve"> AAGGATCCAC</t>
   </si>
   <si>
-    <t>Thread-166</t>
-  </si>
-  <si>
-    <t>Thread-134</t>
+    <t>166</t>
+  </si>
+  <si>
+    <t>134</t>
   </si>
   <si>
     <t xml:space="preserve"> TATTTTCCGC</t>
   </si>
   <si>
-    <t>Thread-160</t>
+    <t>160</t>
   </si>
   <si>
     <t xml:space="preserve"> AAGCATCCAC</t>
   </si>
   <si>
-    <t>Thread-167</t>
-  </si>
-  <si>
-    <t>Thread-158</t>
-  </si>
-  <si>
-    <t>Thread-168</t>
+    <t>167</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>168</t>
   </si>
   <si>
     <t xml:space="preserve"> GGCCCTCCGC</t>
   </si>
   <si>
-    <t>Thread-169</t>
-  </si>
-  <si>
-    <t>Thread-170</t>
-  </si>
-  <si>
-    <t>Thread-164</t>
+    <t>169</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>164</t>
   </si>
   <si>
     <t xml:space="preserve"> CGCCCCCCAC</t>
   </si>
   <si>
-    <t>Thread-173</t>
+    <t>173</t>
   </si>
   <si>
     <t xml:space="preserve"> TATGATCCAC</t>
   </si>
   <si>
-    <t>Thread-171</t>
-  </si>
-  <si>
-    <t>Thread-146</t>
+    <t>171</t>
+  </si>
+  <si>
+    <t>146</t>
   </si>
   <si>
     <t xml:space="preserve"> CTAATTGACC</t>
   </si>
   <si>
-    <t>Thread-175</t>
-  </si>
-  <si>
-    <t>Thread-176</t>
+    <t>175</t>
+  </si>
+  <si>
+    <t>176</t>
   </si>
   <si>
     <t xml:space="preserve"> CGGGATCCAC</t>
   </si>
   <si>
-    <t>Thread-172</t>
-  </si>
-  <si>
-    <t>Thread-174</t>
+    <t>172</t>
+  </si>
+  <si>
+    <t>174</t>
   </si>
   <si>
     <t xml:space="preserve"> TACCCCCCAC</t>
   </si>
   <si>
-    <t>Thread-177</t>
-  </si>
-  <si>
-    <t>Thread-180</t>
+    <t>177</t>
+  </si>
+  <si>
+    <t>180</t>
   </si>
   <si>
     <t xml:space="preserve"> CGGCCCCCAC</t>
   </si>
   <si>
-    <t>Thread-179</t>
+    <t>179</t>
   </si>
   <si>
     <t xml:space="preserve"> TGAGCCCCAC</t>
   </si>
   <si>
-    <t>Thread-178</t>
-  </si>
-  <si>
-    <t>Thread-185</t>
-  </si>
-  <si>
-    <t>Thread-186</t>
+    <t>178</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>186</t>
   </si>
   <si>
     <t xml:space="preserve"> TGGCCCCCAC</t>
   </si>
   <si>
-    <t>Thread-188</t>
-  </si>
-  <si>
-    <t>Thread-181</t>
+    <t>188</t>
+  </si>
+  <si>
+    <t>181</t>
   </si>
   <si>
     <t xml:space="preserve"> CGAGCCCCAC</t>
   </si>
   <si>
-    <t>Thread-189</t>
-  </si>
-  <si>
-    <t>Thread-184</t>
+    <t>189</t>
+  </si>
+  <si>
+    <t>184</t>
   </si>
   <si>
     <t xml:space="preserve"> TGACCCCCAC</t>
   </si>
   <si>
-    <t>Thread-190</t>
-  </si>
-  <si>
-    <t>Thread-192</t>
-  </si>
-  <si>
-    <t>Thread-182</t>
-  </si>
-  <si>
-    <t>Thread-194</t>
-  </si>
-  <si>
-    <t>Thread-195</t>
+    <t>190</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>182</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>195</t>
   </si>
   <si>
     <t xml:space="preserve"> CGACCCCCAC</t>
   </si>
   <si>
-    <t>Thread-187</t>
-  </si>
-  <si>
-    <t>Thread-183</t>
-  </si>
-  <si>
-    <t>Thread-196</t>
-  </si>
-  <si>
-    <t>Thread-198</t>
-  </si>
-  <si>
-    <t>Thread-199</t>
-  </si>
-  <si>
-    <t>Thread-200</t>
-  </si>
-  <si>
-    <t>Thread-191</t>
-  </si>
-  <si>
-    <t>Thread-197</t>
-  </si>
-  <si>
-    <t>Thread-201</t>
-  </si>
-  <si>
-    <t>Thread-202</t>
-  </si>
-  <si>
-    <t>Thread-193</t>
-  </si>
-  <si>
-    <t>Thread-203</t>
-  </si>
-  <si>
-    <t>Thread-206</t>
-  </si>
-  <si>
-    <t>Thread-205</t>
+    <t>187</t>
+  </si>
+  <si>
+    <t>183</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>206</t>
+  </si>
+  <si>
+    <t>205</t>
   </si>
   <si>
     <t xml:space="preserve"> TAACCCCCAC</t>
   </si>
   <si>
-    <t>Thread-204</t>
+    <t>204</t>
   </si>
 </sst>
 </file>
